--- a/Mifos Automation Excels/Client/4428-CreateCenter-Assignstaff-Unassignstaff-staffassignmenthistory.xlsx
+++ b/Mifos Automation Excels/Client/4428-CreateCenter-Assignstaff-Unassignstaff-staffassignmenthistory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>submittedon</t>
   </si>
@@ -41,9 +41,6 @@
     <t>verifycentername</t>
   </si>
   <si>
-    <t>center400</t>
-  </si>
-  <si>
     <t>clickonmorebutton</t>
   </si>
   <si>
@@ -62,16 +59,10 @@
     <t>center4428</t>
   </si>
   <si>
-    <t>Staff Assignmet History</t>
-  </si>
-  <si>
     <t>clickonmorebutton1</t>
   </si>
   <si>
     <t>viewStaffAssignmentHistory</t>
-  </si>
-  <si>
-    <t>verify1</t>
   </si>
 </sst>
 </file>
@@ -130,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -144,7 +135,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -467,15 +457,15 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -512,7 +502,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -520,7 +510,7 @@
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -528,7 +518,7 @@
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -536,7 +526,7 @@
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -544,18 +534,10 @@
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -584,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
